--- a/upload/importar.xlsx
+++ b/upload/importar.xlsx
@@ -41,7 +41,7 @@
     <t>Mes</t>
   </si>
   <si>
-    <t>CHRYSLER</t>
+    <t>CHRYSLER02</t>
   </si>
   <si>
     <t>NEON</t>
@@ -56,7 +56,7 @@
     <t>ENERO</t>
   </si>
   <si>
-    <t>VOLK</t>
+    <t>VOLK02</t>
   </si>
   <si>
     <t>SEDAN</t>
@@ -176,8 +176,8 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
